--- a/Documents/Hackathon Matrix.xlsx
+++ b/Documents/Hackathon Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reuelngo\Desktop\Git Clones\Power-Platform-Solutions\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E9D6A-B86B-4D56-BEDA-A4CAFE9F4EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CACDE0-974B-4CB7-B49D-33A7D6A366D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="-21600" windowWidth="25815" windowHeight="20985" activeTab="1" xr2:uid="{FA431BEF-2C69-4E66-B644-4570D8BF3541}"/>
+    <workbookView xWindow="25485" yWindow="0" windowWidth="25815" windowHeight="20985" xr2:uid="{FA431BEF-2C69-4E66-B644-4570D8BF3541}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring Criteria" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,13 +377,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -492,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -514,65 +507,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,27 +902,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C1C489-A215-4384-AB42-44C6A35EDFD8}">
   <dimension ref="B6:F56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="68.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -956,7 +937,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -970,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -984,21 +965,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1012,7 +993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1026,7 +1007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1040,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1054,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1068,8 +1049,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1078,362 +1059,363 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="21" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="15"/>
-      <c r="C24" s="22" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="C26" s="20" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="15"/>
-      <c r="C27" s="21" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B28" s="15"/>
-      <c r="C28" s="22" t="s">
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="15"/>
-      <c r="C30" s="20" t="s">
+    <row r="30" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="15"/>
-      <c r="C31" s="21" t="s">
+    <row r="31" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B32" s="15"/>
-      <c r="C32" s="22" t="s">
+    <row r="32" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="15"/>
-      <c r="C34" s="20" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="15"/>
-      <c r="C35" s="21" t="s">
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B36" s="15"/>
-      <c r="C36" s="22" t="s">
+    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="15"/>
-      <c r="C38" s="20" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="15"/>
-      <c r="C39" s="21" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+      <c r="C39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="15"/>
-      <c r="C40" s="22" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="16" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
-      <c r="C42" s="20" t="s">
+    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="22"/>
+      <c r="C42" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
-      <c r="C43" s="21" t="s">
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
+      <c r="C43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="18"/>
-      <c r="C44" s="22" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
-      <c r="C46" s="20" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+      <c r="C46" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B47" s="15"/>
-      <c r="C47" s="21" t="s">
+    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B48" s="15"/>
-      <c r="C48" s="22" t="s">
+    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="15"/>
-      <c r="C50" s="20" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
+      <c r="C50" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="15"/>
-      <c r="C51" s="21" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+      <c r="C51" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="15"/>
-      <c r="C52" s="22" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="19"/>
+      <c r="C52" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="15"/>
-      <c r="C54" s="20" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="19"/>
+      <c r="C54" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="15"/>
-      <c r="C55" s="21" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+      <c r="C55" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
-      <c r="C56" s="22" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
+      <c r="C56" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="17" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
@@ -1444,10 +1426,9 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D41:D44">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C21:C56">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1455,7 +1436,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1486,8 +1467,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C56">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="D41:D44">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1495,7 +1476,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1534,51 +1515,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD20CF2-A20E-4EAB-8011-84A2A4F181F8}">
   <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="15.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="6" t="s">
@@ -1588,7 +1569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1648,7 +1629,7 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1666,7 +1647,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1684,7 +1665,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1702,7 +1683,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1720,7 +1701,7 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1738,7 +1719,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1756,7 +1737,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1774,7 +1755,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1792,7 +1773,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1810,7 +1791,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1828,7 +1809,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1846,7 +1827,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1864,7 +1845,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1882,7 +1863,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1900,7 +1881,7 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1918,7 +1899,7 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1936,7 +1917,7 @@
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1954,7 +1935,7 @@
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1972,7 +1953,7 @@
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1990,7 +1971,7 @@
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2008,7 +1989,7 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2026,7 +2007,7 @@
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2044,7 +2025,7 @@
       </c>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2062,7 +2043,7 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
